--- a/va_facility_data_2025-02-20/Marion VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Marion%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Marion VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Marion%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rca28bca62bad48d08f9e853fa1c373c8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R10120bf8b9124b3fa6e8f278461ff70d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rae9694dac8164049a0ea4cb817478ba1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb9465666f8714f6c8493db2c39323b9a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd49f20d465eb4d92b7ae6bb7fe7073b2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rce8ac472b11c4de7af618aee4ee26d3e"/>
   </x:sheets>
 </x:workbook>
 </file>
